--- a/tbl/chicken-madras.xlsx
+++ b/tbl/chicken-madras.xlsx
@@ -204,10 +204,10 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15:E18"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.13"/>
@@ -238,7 +238,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -253,7 +253,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
@@ -268,7 +268,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -283,7 +283,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -298,7 +298,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -313,7 +313,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -328,7 +328,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -343,7 +343,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
@@ -358,7 +358,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
@@ -373,7 +373,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>17</v>
@@ -388,7 +388,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>17</v>
@@ -403,7 +403,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>17</v>
@@ -418,7 +418,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>17</v>
